--- a/data/provincias_hoy.xlsx
+++ b/data/provincias_hoy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C3F29EE7-7FD4-4EA6-A5EC-5C71681CCB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73379E68-8D56-4324-BBA4-403D8C82F1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="585" windowWidth="18045" windowHeight="9720" xr2:uid="{0477CB30-1A8E-43E8-B14C-09CBA0E91DCD}"/>
+    <workbookView xWindow="10800" yWindow="645" windowWidth="9630" windowHeight="9720" xr2:uid="{0477CB30-1A8E-43E8-B14C-09CBA0E91DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="provincias_hoy" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,36 +663,30 @@
         <v>43949</v>
       </c>
       <c r="C2" s="2">
-        <v>1429</v>
+        <v>1532</v>
       </c>
       <c r="D2" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E2" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>43949</v>
       </c>
-      <c r="C3" s="5">
-        <v>1089</v>
-      </c>
-      <c r="D3" s="3">
-        <v>360</v>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>80</v>
-      </c>
-      <c r="F3" s="2">
-        <v>794</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -703,7 +697,7 @@
         <v>43950</v>
       </c>
       <c r="C4" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D4" s="2">
         <v>105</v>
@@ -723,82 +717,97 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C5" s="2">
-        <v>279</v>
-      </c>
-      <c r="D5" s="2">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2">
-        <v>62</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>373</v>
-      </c>
-      <c r="J5" s="2">
-        <v>6416</v>
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1839</v>
       </c>
       <c r="K5" s="2">
-        <v>5987</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>43948</v>
-      </c>
-      <c r="C6" s="2">
-        <v>243</v>
-      </c>
-      <c r="D6" s="2">
-        <v>136</v>
+        <v>43950</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1123</v>
+      </c>
+      <c r="D6" s="3">
+        <v>467</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1158</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5092</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="C7" s="2">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="D7" s="2">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>62</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>373</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6416</v>
+      </c>
+      <c r="K7" s="2">
+        <v>5987</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>43948</v>
-      </c>
-      <c r="C8" s="2">
-        <v>137</v>
+        <v>43950</v>
+      </c>
+      <c r="C8" s="3">
+        <v>49</v>
       </c>
       <c r="D8" s="2">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -807,384 +816,374 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>37</v>
-      </c>
-      <c r="K8" s="2">
-        <v>747</v>
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2081</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>43949</v>
       </c>
       <c r="C9" s="2">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
         <v>43949</v>
       </c>
       <c r="C10" s="2">
-        <v>76</v>
-      </c>
-      <c r="D10" s="3">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>43949</v>
       </c>
       <c r="C11" s="2">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1454</v>
+      </c>
+      <c r="J11" s="2">
+        <v>110</v>
+      </c>
+      <c r="K11" s="2">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="C12" s="2">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <f>26+4+2</f>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
+      <c r="I12" s="2">
+        <v>1867</v>
+      </c>
+      <c r="J12" s="2">
+        <v>106</v>
+      </c>
       <c r="K12" s="2">
-        <v>213</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>43950</v>
-      </c>
-      <c r="C13" s="3">
-        <v>48</v>
+        <v>43949</v>
+      </c>
+      <c r="C13" s="2">
+        <v>52</v>
       </c>
       <c r="D13" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2081</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="C14" s="2">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="D14" s="3">
+        <v>28</v>
       </c>
       <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1144</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C15" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>534</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
-        <v>43946</v>
+        <v>43949</v>
       </c>
       <c r="C16" s="2">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2">
         <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>218</v>
-      </c>
-      <c r="K16" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C17" s="2">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="D17" s="2">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>239</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
-        <v>43950</v>
+        <v>43944</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
       </c>
       <c r="J18" s="2">
-        <v>451</v>
+        <v>154</v>
+      </c>
+      <c r="K18" s="2">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>43949</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
       <c r="I19" s="2">
-        <v>1454</v>
-      </c>
-      <c r="J19" s="2">
-        <v>110</v>
+        <v>364</v>
       </c>
       <c r="K19" s="2">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
         <v>43949</v>
       </c>
       <c r="C20" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>1867</v>
-      </c>
-      <c r="J20" s="2">
-        <v>106</v>
-      </c>
-      <c r="K20" s="2">
-        <v>101</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="C21" s="2">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2">
-        <v>3</v>
+        <f>29+4+2</f>
+        <v>35</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2">
-        <v>154</v>
-      </c>
       <c r="K21" s="2">
-        <v>128</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1">
         <v>43950</v>
       </c>
       <c r="C22" s="2">
+        <v>243</v>
+      </c>
+      <c r="D22" s="2">
+        <v>141</v>
+      </c>
+      <c r="E22" s="2">
         <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>7</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1839</v>
-      </c>
-      <c r="K22" s="2">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>364</v>
+        <v>218</v>
       </c>
       <c r="K23" s="2">
-        <v>9</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>37</v>
+      </c>
+      <c r="K24" s="2">
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K25">
-    <sortCondition descending="1" ref="C2:C25"/>
-    <sortCondition ref="A2:A25"/>
+    <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/data/provincias_hoy.xlsx
+++ b/data/provincias_hoy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB67556-3E47-4F2C-9721-D03E57041C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E149BFB2-B418-40C2-925B-7F3C77405B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-945" yWindow="690" windowWidth="10050" windowHeight="9720" xr2:uid="{0477CB30-1A8E-43E8-B14C-09CBA0E91DCD}"/>
+    <workbookView xWindow="12975" yWindow="1290" windowWidth="8550" windowHeight="9720" xr2:uid="{0477CB30-1A8E-43E8-B14C-09CBA0E91DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="provincias_hoy" sheetId="1" r:id="rId1"/>
@@ -601,10 +601,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C19BAB-C90A-4182-ABC1-5A7AD1AE7D36}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>43949</v>
+        <v>43952</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
@@ -694,10 +694,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="C4" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D4" s="2">
         <v>105</v>
@@ -746,16 +746,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="C6" s="5">
-        <v>1123</v>
+        <v>1196</v>
       </c>
       <c r="D6" s="3">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="E6" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6" s="2">
         <v>1158</v>

--- a/data/provincias_hoy.xlsx
+++ b/data/provincias_hoy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\site\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E149BFB2-B418-40C2-925B-7F3C77405B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6785EBCB-1CC4-47C6-8E47-23B79624EB72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="1290" windowWidth="8550" windowHeight="9720" xr2:uid="{0477CB30-1A8E-43E8-B14C-09CBA0E91DCD}"/>
+    <workbookView xWindow="11280" yWindow="1065" windowWidth="8580" windowHeight="9720" xr2:uid="{0477CB30-1A8E-43E8-B14C-09CBA0E91DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="provincias_hoy" sheetId="1" r:id="rId1"/>
@@ -602,9 +602,9 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,13 +769,13 @@
         <v>21</v>
       </c>
       <c r="B7" s="1">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="C7" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D7" s="2">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
@@ -807,7 +807,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2">
         <v>6</v>
@@ -942,13 +942,13 @@
         <v>43949</v>
       </c>
       <c r="C14" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="D14" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>110</v>
       </c>
       <c r="D16" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
@@ -999,7 +999,7 @@
         <v>214</v>
       </c>
       <c r="D17" s="2">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2">
         <v>8</v>
@@ -1016,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
